--- a/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="555">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,6 +1790,13 @@
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2089,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2150,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2496,14 +2503,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>553</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-3793-1405</v>
+        <v>010-4635-8479</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2525,14 +2532,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-4463-5270</v>
+        <v>010-1128-5559</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2554,14 +2561,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7458-2489</v>
+        <v>010-6499-1547</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2583,14 +2590,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1246-2127</v>
+        <v>010-3148-5252</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2612,14 +2619,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5656-3172</v>
+        <v>010-7770-5803</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2641,14 +2648,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6705-5239</v>
+        <v>010-8071-4905</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2670,14 +2677,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4652-1679</v>
+        <v>010-9816-9558</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2699,14 +2706,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3325-8445</v>
+        <v>010-5996-5271</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2728,14 +2735,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2583-0514</v>
+        <v>010-3583-6132</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2757,14 +2764,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6251-3088</v>
+        <v>010-3200-5017</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2786,14 +2793,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6536-2353</v>
+        <v>010-7022-5454</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2815,14 +2822,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2715-3927</v>
+        <v>010-9182-1398</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2844,14 +2851,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2699-9900</v>
+        <v>010-9956-0870</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2873,14 +2880,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2601-9074</v>
+        <v>010-2907-9269</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2902,14 +2909,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5136-2775</v>
+        <v>010-2304-4567</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2931,14 +2938,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8315-7859</v>
+        <v>010-5885-2028</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2960,14 +2967,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6288-2708</v>
+        <v>010-8679-3568</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2989,14 +2996,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1645-2206</v>
+        <v>010-9377-4675</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3018,14 +3025,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1962-9703</v>
+        <v>010-5069-5906</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3047,14 +3054,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>554</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2332-6871</v>
+        <v>010-4212-6068</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3076,14 +3083,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2374-7334</v>
+        <v>010-2643-7677</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3105,14 +3112,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1056-0989</v>
+        <v>010-2085-6875</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3134,14 +3141,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8454-2968</v>
+        <v>010-3594-2685</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3163,14 +3170,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5428-8360</v>
+        <v>010-5514-8566</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3192,14 +3199,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7307-7515</v>
+        <v>010-2521-6184</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3221,14 +3228,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6010-0973</v>
+        <v>010-5730-2323</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3250,14 +3257,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1428-5231</v>
+        <v>010-8650-8398</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3279,14 +3286,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1997-6087</v>
+        <v>010-1330-8933</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3308,14 +3315,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6716-1204</v>
+        <v>010-3882-0440</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3337,14 +3344,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8078-0068</v>
+        <v>010-1921-9141</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3366,14 +3373,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1561-6420</v>
+        <v>010-8643-3386</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3395,14 +3402,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3582-7634</v>
+        <v>010-3979-1009</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3424,14 +3431,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1151-8521</v>
+        <v>010-5408-3089</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3453,14 +3460,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9752-2560</v>
+        <v>010-1694-6030</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3482,14 +3489,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2876-2822</v>
+        <v>010-3964-7029</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3511,14 +3518,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1541-0768</v>
+        <v>010-8056-7139</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3540,14 +3547,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2457-9125</v>
+        <v>010-2153-9958</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3569,14 +3576,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6983-6053</v>
+        <v>010-5001-3033</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3598,14 +3605,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8823-7808</v>
+        <v>010-7805-7260</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3627,14 +3634,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2660-1340</v>
+        <v>010-2098-7129</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3656,14 +3663,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5482-3729</v>
+        <v>010-6235-4368</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3685,14 +3692,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7444-7591</v>
+        <v>010-1839-7028</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3714,14 +3721,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1852-5356</v>
+        <v>010-9710-6990</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3743,14 +3750,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9467-1561</v>
+        <v>010-8323-7578</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3772,14 +3779,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2540-3942</v>
+        <v>010-5322-4472</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3801,14 +3808,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6071-1373</v>
+        <v>010-7243-1207</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3830,14 +3837,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>497</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3332-6747</v>
+        <v>010-5655-6898</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3859,14 +3866,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9820-1034</v>
+        <v>010-2691-0957</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3888,14 +3895,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6487-8635</v>
+        <v>010-6818-8393</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3917,14 +3924,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6158-3956</v>
+        <v>010-5317-2935</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3946,14 +3953,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8411-9261</v>
+        <v>010-5532-7171</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3975,14 +3982,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7604-5026</v>
+        <v>010-6218-5956</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4004,14 +4011,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9089-2326</v>
+        <v>010-8898-0306</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4033,14 +4040,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8596-3946</v>
+        <v>010-3455-5947</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4062,14 +4069,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5166-8901</v>
+        <v>010-9604-8119</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4091,14 +4098,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2617-5147</v>
+        <v>010-6048-8868</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4120,14 +4127,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2722-4006</v>
+        <v>010-7593-8591</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4149,14 +4156,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3245-7240</v>
+        <v>010-3303-9667</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4178,14 +4185,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1078-5669</v>
+        <v>010-2403-3902</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4207,14 +4214,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5050-4230</v>
+        <v>010-1375-8053</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4236,14 +4243,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8267-0086</v>
+        <v>010-7164-2412</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4265,14 +4272,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6113-3863</v>
+        <v>010-6839-0583</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4294,14 +4301,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5874-6357</v>
+        <v>010-1820-5761</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4323,14 +4330,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>514</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1060-7793</v>
+        <v>010-3099-0894</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4352,14 +4359,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>515</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8226-4835</v>
+        <v>010-8419-2215</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4381,14 +4388,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6772-1079</v>
+        <v>010-5310-7050</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4410,14 +4417,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2749-3986</v>
+        <v>010-2361-8555</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4439,14 +4446,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4293-7853</v>
+        <v>010-9222-6036</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4468,14 +4475,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>519</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6527-4995</v>
+        <v>010-2501-4874</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4497,14 +4504,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8769-6576</v>
+        <v>010-8010-3506</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4526,14 +4533,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6789-3619</v>
+        <v>010-4965-4426</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4555,14 +4562,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7778-9938</v>
+        <v>010-3235-3991</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4584,14 +4591,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7317-8678</v>
+        <v>010-8499-5301</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4613,14 +4620,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2043-8527</v>
+        <v>010-1127-6650</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4642,14 +4649,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8794-0996</v>
+        <v>010-1714-6471</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4671,14 +4678,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3585-4926</v>
+        <v>010-3565-0168</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4700,14 +4707,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9940-1758</v>
+        <v>010-2783-3889</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4729,14 +4736,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6909-6137</v>
+        <v>010-6055-4060</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4758,14 +4765,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9548-5034</v>
+        <v>010-8706-0746</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4787,14 +4794,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8197-2552</v>
+        <v>010-2628-2690</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4816,14 +4823,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1735-0055</v>
+        <v>010-4287-9781</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4845,14 +4852,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6164-4479</v>
+        <v>010-2333-7124</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4874,14 +4881,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8624-6093</v>
+        <v>010-2391-2586</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4903,14 +4910,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5797-2053</v>
+        <v>010-3094-3178</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4932,14 +4939,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4179-8043</v>
+        <v>010-6889-5825</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4961,14 +4968,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4440-0516</v>
+        <v>010-7102-0854</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4990,14 +4997,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1800-0476</v>
+        <v>010-1772-8513</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5019,14 +5026,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4504-0053</v>
+        <v>010-9655-8429</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5048,14 +5055,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5776-6655</v>
+        <v>010-6284-0431</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5077,14 +5084,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2207-7970</v>
+        <v>010-1251-1168</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5106,14 +5113,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2678-5123</v>
+        <v>010-3383-1162</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5135,14 +5142,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>542</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5886-2599</v>
+        <v>010-2390-8067</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5164,14 +5171,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3408-4203</v>
+        <v>010-2755-5876</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5193,14 +5200,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4682-7923</v>
+        <v>010-8453-6369</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5222,14 +5229,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7019-6197</v>
+        <v>010-2816-7626</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5251,14 +5258,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7914-7092</v>
+        <v>010-8326-4699</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5280,14 +5287,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7607-7869</v>
+        <v>010-5300-2165</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5309,14 +5316,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4254-5843</v>
+        <v>010-9634-1100</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5338,14 +5345,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2122-8629</v>
+        <v>010-9992-6022</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5366,15 +5373,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1581-2789</v>
+        <v>010-5236-7559</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5399,7 +5406,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5552,7 +5559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A691" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M697" sqref="M697"/>
     </sheetView>
   </sheetViews>
@@ -15441,39 +15448,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15485,39 +15492,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15529,39 +15536,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15573,19 +15580,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -15593,19 +15600,19 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15617,39 +15624,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15661,39 +15668,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15705,39 +15712,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15749,39 +15756,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15793,39 +15800,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15837,35 +15844,35 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
@@ -15881,39 +15888,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15925,39 +15932,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15969,39 +15976,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16013,39 +16020,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16057,39 +16064,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16101,39 +16108,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16145,39 +16152,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16189,39 +16196,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16233,39 +16240,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16277,39 +16284,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16321,39 +16328,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16365,39 +16372,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16409,39 +16416,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16453,39 +16460,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16497,39 +16504,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16541,39 +16548,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16585,15 +16592,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
@@ -16601,23 +16608,23 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16629,39 +16636,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16673,39 +16680,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16717,39 +16724,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16761,39 +16768,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16805,23 +16812,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
@@ -16829,11 +16836,11 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
@@ -16849,39 +16856,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16893,39 +16900,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16937,39 +16944,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16981,39 +16988,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17025,39 +17032,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17069,39 +17076,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17113,39 +17120,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17157,39 +17164,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17201,39 +17208,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="8"/>
         <v>70</v>
       </c>
-      <c r="G42">
-        <f t="shared" ca="1" si="8"/>
-        <v>99</v>
-      </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17245,39 +17252,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17289,39 +17296,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17333,39 +17340,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17377,39 +17384,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17421,23 +17428,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
@@ -17445,15 +17452,15 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17465,23 +17472,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
@@ -17489,15 +17496,15 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17509,39 +17516,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17553,39 +17560,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17597,39 +17604,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17641,39 +17648,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17685,39 +17692,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17729,39 +17736,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17773,39 +17780,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17817,11 +17824,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
@@ -17829,27 +17836,27 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17861,15 +17868,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
@@ -17877,11 +17884,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
@@ -17889,11 +17896,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17905,39 +17912,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17949,39 +17956,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -17993,39 +18000,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18037,39 +18044,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18081,39 +18088,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="8"/>
         <v>80</v>
       </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="G62">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18125,19 +18132,19 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
@@ -18145,19 +18152,19 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18169,39 +18176,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18213,7 +18220,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
@@ -18221,31 +18228,31 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18257,39 +18264,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18301,39 +18308,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18349,35 +18356,35 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18389,7 +18396,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
@@ -18397,31 +18404,31 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="8"/>
         <v>83</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18433,39 +18440,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18477,15 +18484,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
@@ -18493,19 +18500,19 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
@@ -18521,15 +18528,15 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
@@ -18537,23 +18544,23 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18565,39 +18572,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18609,39 +18616,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18653,39 +18660,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18697,39 +18704,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18741,39 +18748,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="8"/>
         <v>78</v>
       </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="8"/>
-        <v>98</v>
-      </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18785,39 +18792,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
-      <c r="F78">
+      <c r="G78">
+        <f t="shared" ca="1" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="I78">
         <f t="shared" ca="1" si="8"/>
         <v>62</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="H78">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="8"/>
-        <v>59</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18829,39 +18836,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="8"/>
         <v>92</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18873,23 +18880,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
@@ -18897,15 +18904,15 @@
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18917,39 +18924,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18961,39 +18968,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19005,31 +19012,31 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
@@ -19049,39 +19056,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19093,27 +19100,27 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
@@ -19121,11 +19128,11 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19137,39 +19144,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="H86">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="I86">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19181,39 +19188,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19225,39 +19232,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19269,39 +19276,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19313,39 +19320,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19357,39 +19364,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19401,39 +19408,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="8"/>
         <v>100</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="G92">
-        <f t="shared" ca="1" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="H92">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="I92">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19445,39 +19452,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="8"/>
         <v>81</v>
-      </c>
-      <c r="F93">
-        <f t="shared" ca="1" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="G93">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="H93">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="I93">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19489,39 +19496,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19533,39 +19540,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="8"/>
         <v>72</v>
       </c>
-      <c r="H95">
-        <f t="shared" ca="1" si="8"/>
-        <v>100</v>
-      </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19577,39 +19584,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19621,39 +19628,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19665,39 +19672,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19709,39 +19716,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19753,39 +19760,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19797,39 +19804,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -19884,19 +19891,19 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
@@ -19912,23 +19919,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19940,23 +19947,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19968,23 +19975,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -19996,23 +20003,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20024,23 +20031,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20052,23 +20059,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20080,23 +20087,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20108,23 +20115,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20136,7 +20143,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
@@ -20144,15 +20151,15 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20164,23 +20171,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20192,23 +20199,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20220,23 +20227,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20248,23 +20255,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20276,23 +20283,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20304,23 +20311,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20332,23 +20339,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20360,23 +20367,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20388,23 +20395,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20416,23 +20423,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20444,23 +20451,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20472,23 +20479,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20500,23 +20507,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20528,23 +20535,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20556,23 +20563,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20584,23 +20591,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20612,23 +20619,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20640,23 +20647,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20668,23 +20675,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20696,23 +20703,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20724,23 +20731,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20752,23 +20759,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20780,7 +20787,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
@@ -20788,11 +20795,11 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
@@ -20808,23 +20815,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20836,23 +20843,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20864,23 +20871,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20892,23 +20899,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20920,23 +20927,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20948,23 +20955,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20976,23 +20983,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21004,23 +21011,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21032,23 +21039,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21060,23 +21067,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21088,23 +21095,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21116,23 +21123,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21144,23 +21151,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21172,23 +21179,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21200,7 +21207,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
@@ -21208,15 +21215,15 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21228,23 +21235,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21256,23 +21263,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21284,7 +21291,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
@@ -21292,15 +21299,15 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21312,23 +21319,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21340,23 +21347,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21368,23 +21375,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21396,23 +21403,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21424,23 +21431,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21452,23 +21459,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21480,23 +21487,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21512,19 +21519,19 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21536,23 +21543,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21564,23 +21571,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21596,19 +21603,19 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21620,23 +21627,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21648,23 +21655,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21676,23 +21683,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21704,23 +21711,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21732,23 +21739,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21760,23 +21767,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21788,23 +21795,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21816,23 +21823,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21844,23 +21851,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21872,23 +21879,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21900,23 +21907,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21928,23 +21935,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21956,23 +21963,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21984,23 +21991,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22012,23 +22019,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22040,23 +22047,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22068,23 +22075,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22096,23 +22103,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22124,23 +22131,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22152,23 +22159,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22180,23 +22187,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22208,23 +22215,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22236,23 +22243,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22264,11 +22271,11 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
@@ -22276,11 +22283,11 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22292,23 +22299,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22320,23 +22327,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22348,7 +22355,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
@@ -22356,15 +22363,15 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22376,23 +22383,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22404,23 +22411,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22432,23 +22439,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22460,23 +22467,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22488,23 +22495,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22516,23 +22523,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22544,23 +22551,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22572,23 +22579,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22600,23 +22607,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22628,23 +22635,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22656,23 +22663,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
